--- a/biology/Zoologie/Graptemys_oculifera/Graptemys_oculifera.xlsx
+++ b/biology/Zoologie/Graptemys_oculifera/Graptemys_oculifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graptemys oculifera est une espèce de tortues de la famille des Emydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graptemys oculifera est une espèce de tortues de la famille des Emydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre dans le bassin de la Pearl River en Louisiane et au Mississippi.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans le bassin de la Pearl River en Louisiane et au Mississippi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement aux autres espèces du genre Graptemys, les mâles et les femelles Graptemys oculifera ont la même alimentation. Ils se nourrissent principalement de trichoptères, de diptères, d'éphémères, de coléoptères et d'autres insectes. Ils se nourrissent occasionnellement de poissons morts[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux autres espèces du genre Graptemys, les mâles et les femelles Graptemys oculifera ont la même alimentation. Ils se nourrissent principalement de trichoptères, de diptères, d'éphémères, de coléoptères et d'autres insectes. Ils se nourrissent occasionnellement de poissons morts.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 109 mm et les femelles, bien plus grandes, jusqu'à 215 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 109 mm et les femelles, bien plus grandes, jusqu'à 215 mm.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baur, 1890 : Two new species of tortoises from the South. Science, ser. 1, vol. 16, p. 262-263.</t>
         </is>
